--- a/Deadlines.xlsx
+++ b/Deadlines.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27907"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas_2\Documents\Bachelorproef-Ansible-vs-Puppet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasdetemmerman/Documents/Bachelorproef-Ansible-vs-Puppet/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
   <si>
     <t xml:space="preserve">maandag </t>
   </si>
@@ -361,27 +367,31 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Deadline?   
+    <t>litteratuurstudie</t>
+  </si>
+  <si>
+    <t>Puppet manifest</t>
+  </si>
+  <si>
+    <t>Vagrant</t>
+  </si>
+  <si>
+    <t>Ansible playbook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final draft
 Einde stage             26      </t>
   </si>
   <si>
-    <t>litteratuurstudie</t>
-  </si>
-  <si>
-    <t>Puppet manifest</t>
-  </si>
-  <si>
-    <t>Vagrant</t>
-  </si>
-  <si>
-    <t>Ansible playbook</t>
+    <t>2
+Deadline</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -432,8 +442,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -461,6 +478,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -475,7 +498,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,7 +509,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -514,7 +537,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -522,7 +548,7 @@
     <cellStyle name="Goed" xfId="1" builtinId="26"/>
     <cellStyle name="Neutraal" xfId="3" builtinId="28"/>
     <cellStyle name="Ongeldig" xfId="2" builtinId="27"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
@@ -530,6 +556,21 @@
     </dxf>
     <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -558,21 +599,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -587,32 +613,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="K4:L15" totalsRowShown="0" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="K4:L15" totalsRowShown="0" dataDxfId="6">
   <autoFilter ref="K4:L15"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="onderdeel" dataDxfId="9"/>
-    <tableColumn id="2" name="sub-onderdeel" dataDxfId="8"/>
+    <tableColumn id="1" name="onderdeel" dataDxfId="5"/>
+    <tableColumn id="2" name="sub-onderdeel" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel2" displayName="Tabel2" ref="M4:N15" totalsRowShown="0" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel2" displayName="Tabel2" ref="M4:N15" totalsRowShown="0" dataDxfId="3">
   <autoFilter ref="M4:N15"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="ref bp-voorstel" dataDxfId="6"/>
-    <tableColumn id="2" name="voltooid" dataCellStyle="Standaard"/>
+    <tableColumn id="1" name="ref bp-voorstel" dataDxfId="2"/>
+    <tableColumn id="2" name="voltooid"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabel3" displayName="Tabel3" ref="J4:J16" totalsRowShown="0" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabel3" displayName="Tabel3" ref="J4:J16" totalsRowShown="0" dataDxfId="1">
   <autoFilter ref="J4:J16"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="N°" dataDxfId="1"/>
+    <tableColumn id="1" name="N°" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -917,27 +943,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20.5" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" customWidth="1"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" customWidth="1"/>
     <col min="11" max="11" width="33" customWidth="1"/>
-    <col min="12" max="12" width="27.28515625" customWidth="1"/>
-    <col min="13" max="13" width="24.28515625" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" customWidth="1"/>
+    <col min="12" max="12" width="27.33203125" customWidth="1"/>
+    <col min="13" max="13" width="24.33203125" customWidth="1"/>
+    <col min="14" max="14" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -960,7 +986,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>13</v>
       </c>
@@ -986,7 +1012,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>36</v>
       </c>
@@ -1012,7 +1038,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>27</v>
       </c>
@@ -1053,7 +1079,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>6</v>
       </c>
@@ -1079,7 +1105,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3" t="s">
@@ -1089,7 +1115,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>13</v>
       </c>
@@ -1125,7 +1151,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>20</v>
       </c>
@@ -1152,14 +1178,14 @@
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>27</v>
       </c>
@@ -1189,14 +1215,14 @@
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>3</v>
       </c>
@@ -1223,14 +1249,14 @@
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>10</v>
       </c>
@@ -1266,7 +1292,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>17</v>
       </c>
@@ -1302,7 +1328,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>24</v>
       </c>
@@ -1341,7 +1367,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>1</v>
       </c>
@@ -1377,7 +1403,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>8</v>
       </c>
@@ -1413,7 +1439,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>15</v>
       </c>
@@ -1449,7 +1475,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>22</v>
       </c>
@@ -1462,8 +1488,8 @@
       <c r="D16" s="8">
         <v>25</v>
       </c>
-      <c r="E16" s="11" t="s">
-        <v>55</v>
+      <c r="E16" s="12" t="s">
+        <v>59</v>
       </c>
       <c r="F16" s="8">
         <v>27</v>
@@ -1483,7 +1509,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>29</v>
       </c>
@@ -1496,8 +1522,8 @@
       <c r="D17" s="9">
         <v>1</v>
       </c>
-      <c r="E17" s="5">
-        <v>2</v>
+      <c r="E17" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="F17" s="9">
         <v>3</v>
@@ -1512,7 +1538,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>5</v>
       </c>
@@ -1537,13 +1563,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="N5:N16">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="true">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="true">
       <formula>NOT(ISERROR(SEARCH("true",N5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="false">
+    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="false">
       <formula>NOT(ISERROR(SEARCH("false",N5)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>"false=$N$5"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Deadlines.xlsx
+++ b/Deadlines.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="73">
   <si>
     <t xml:space="preserve">maandag </t>
   </si>
@@ -71,9 +71,6 @@
     <t>TODO:</t>
   </si>
   <si>
-    <t>configuraties maken</t>
-  </si>
-  <si>
     <t>resultaten performantie</t>
   </si>
   <si>
@@ -83,9 +80,6 @@
     <t>resultaten veiligheid</t>
   </si>
   <si>
-    <t>ondervraging redenen voor omschakeling</t>
-  </si>
-  <si>
     <t>ref bp-voorstel</t>
   </si>
   <si>
@@ -111,9 +105,6 @@
   </si>
   <si>
     <t>Analyse van obstructies tijdens transitperiode</t>
-  </si>
-  <si>
-    <t>conclusie / voltooien bp</t>
   </si>
   <si>
     <t>2.3</t>
@@ -232,8 +223,31 @@
 </t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">4
+    <t>analyse ondervraging N°6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5
+</t>
+  </si>
+  <si>
+    <t>litteratuurstudie</t>
+  </si>
+  <si>
+    <t>Puppet manifest</t>
+  </si>
+  <si>
+    <t>Vagrant</t>
+  </si>
+  <si>
+    <t>Ansible playbook</t>
+  </si>
+  <si>
+    <t>2
+Deadline</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">19
 </t>
     </r>
     <r>
@@ -244,27 +258,64 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>N° 1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">19
+      <t>Final draft</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">29
+Einde stage             26      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4
+</t>
+  </si>
+  <si>
+    <t>conlusie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23
+</t>
+  </si>
+  <si>
+    <t>Opmerkingen</t>
+  </si>
+  <si>
+    <t>Deze data representeren de deadline van oplevering. Dit betekent dus dat ze ook volledig gedocumenteerd zijn in de bachelorproef. Kleine aanpassingen na deadline  zijn echter niet uitgesloten. Het is bovendien mogelijk dat bijvoorbeeld N°4 begonnen is voor N°3 indien dit beter uitkomt. De deadline van N°3 ligt alleen vroeger.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7
 </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Hoofdtekst)"/>
       </rPr>
-      <t>N°8</t>
-    </r>
-  </si>
-  <si>
-    <t>analyse ondervraging N°6</t>
+      <t>N°7</t>
+    </r>
+  </si>
+  <si>
+    <t>configuraties maken*</t>
+  </si>
+  <si>
+    <t>ondervraging redenen voor omschakeling**</t>
+  </si>
+  <si>
+    <t>**Hier geen documentatie, deze gebeurt pas bij N°7</t>
+  </si>
+  <si>
+    <t>Voor een actuele stand van zaken, zie huboard: https://huboard.com/ThomasDetemmerman/Bachelorproef-Ansible-vs-Puppet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12
+</t>
   </si>
   <si>
     <r>
@@ -275,123 +326,124 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Hoofdtekst)"/>
       </rPr>
-      <t>N°7</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">5
+      <t>N° 1/2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">28
 </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Hoofdtekst)"/>
       </rPr>
-      <t>N° 6</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">5
-</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">12
+      <t>N° 3</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">2
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4
 </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Hoofdtekst)"/>
       </rPr>
-      <t>N° 2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">26
+      <t>N°4</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">16
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">18
 </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Hoofdtekst)"/>
       </rPr>
-      <t>N° 3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">9 
+      <t>N° 5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Hoofdtekst)"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Hoofdtekst)"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">25
 </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Hoofdtekst)"/>
       </rPr>
-      <t>N° 4</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">23
+      <t>N° 6</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">14
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">16
 </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Hoofdtekst)"/>
       </rPr>
-      <t>N° 5</t>
-    </r>
-  </si>
-  <si>
-    <t>litteratuurstudie</t>
-  </si>
-  <si>
-    <t>Puppet manifest</t>
-  </si>
-  <si>
-    <t>Vagrant</t>
-  </si>
-  <si>
-    <t>Ansible playbook</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Final draft
-Einde stage             26      </t>
-  </si>
-  <si>
-    <t>2
-Deadline</t>
+      <t>N° 8/9</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -444,6 +496,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri (Hoofdtekst)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri (Hoofdtekst)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri (Hoofdtekst)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -509,7 +585,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -540,7 +616,26 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -613,8 +708,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="K4:L15" totalsRowShown="0" dataDxfId="6">
-  <autoFilter ref="K4:L15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="K4:L16" totalsRowShown="0" dataDxfId="6">
+  <autoFilter ref="K4:L16"/>
   <tableColumns count="2">
     <tableColumn id="1" name="onderdeel" dataDxfId="5"/>
     <tableColumn id="2" name="sub-onderdeel" dataDxfId="4"/>
@@ -624,8 +719,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel2" displayName="Tabel2" ref="M4:N15" totalsRowShown="0" dataDxfId="3">
-  <autoFilter ref="M4:N15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel2" displayName="Tabel2" ref="M4:N16" totalsRowShown="0" dataDxfId="3">
+  <autoFilter ref="M4:N16"/>
   <tableColumns count="2">
     <tableColumn id="1" name="ref bp-voorstel" dataDxfId="2"/>
     <tableColumn id="2" name="voltooid"/>
@@ -941,10 +1036,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -994,19 +1089,19 @@
         <v>14</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>37</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
@@ -1014,7 +1109,7 @@
     </row>
     <row r="3" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B3" s="5">
         <v>21</v>
@@ -1026,13 +1121,13 @@
         <v>23</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F3" s="5">
         <v>25</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>12</v>
@@ -1052,31 +1147,31 @@
         <v>2</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
         <v>7</v>
       </c>
       <c r="J4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" t="s">
         <v>19</v>
-      </c>
-      <c r="L4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1093,34 +1188,34 @@
         <v>9</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F5" s="8">
         <v>11</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="J5" s="4">
         <v>1</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>13</v>
       </c>
-      <c r="B6" s="8">
-        <v>14</v>
+      <c r="B6" s="13" t="s">
+        <v>63</v>
       </c>
       <c r="C6" s="7">
         <v>15</v>
@@ -1135,20 +1230,20 @@
         <v>18</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J6" s="4">
         <v>2</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1171,26 +1266,26 @@
         <v>25</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>27</v>
       </c>
-      <c r="B8" s="8">
-        <v>28</v>
+      <c r="B8" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="C8" s="7">
         <v>29</v>
@@ -1204,30 +1299,30 @@
       <c r="F8" s="9">
         <v>1</v>
       </c>
-      <c r="G8" s="9">
-        <v>2</v>
+      <c r="G8" s="14" t="s">
+        <v>65</v>
       </c>
       <c r="H8" t="s">
         <v>8</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>3</v>
       </c>
-      <c r="B9" s="9">
-        <v>4</v>
+      <c r="B9" s="14" t="s">
+        <v>66</v>
       </c>
       <c r="C9" s="5">
         <v>5</v>
@@ -1245,15 +1340,15 @@
         <v>53</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1275,29 +1370,29 @@
       <c r="F10" s="9">
         <v>15</v>
       </c>
-      <c r="G10" s="5">
-        <v>16</v>
+      <c r="G10" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="J10" s="4">
         <v>3</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>17</v>
       </c>
-      <c r="B11" s="9">
-        <v>18</v>
+      <c r="B11" s="14" t="s">
+        <v>68</v>
       </c>
       <c r="C11" s="5">
         <v>19</v>
@@ -1318,22 +1413,22 @@
         <v>4</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L11" s="3"/>
       <c r="M11" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>24</v>
       </c>
-      <c r="B12" s="9">
-        <v>25</v>
+      <c r="B12" s="14" t="s">
+        <v>70</v>
       </c>
       <c r="C12" s="5">
         <v>26</v>
@@ -1347,8 +1442,8 @@
       <c r="F12" s="9">
         <v>29</v>
       </c>
-      <c r="G12" s="5">
-        <v>30</v>
+      <c r="G12" s="15" t="s">
+        <v>69</v>
       </c>
       <c r="H12" t="s">
         <v>9</v>
@@ -1357,14 +1452,14 @@
         <v>5</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L12" s="3"/>
       <c r="M12" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1381,26 +1476,26 @@
         <v>4</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F13" s="8">
         <v>6</v>
       </c>
-      <c r="G13" s="7">
-        <v>7</v>
+      <c r="G13" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="J13" s="4">
         <v>6</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1423,28 +1518,28 @@
         <v>13</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="J14" s="4">
         <v>7</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>15</v>
       </c>
-      <c r="B15" s="8">
-        <v>16</v>
+      <c r="B15" s="13" t="s">
+        <v>72</v>
       </c>
       <c r="C15" s="7">
         <v>17</v>
@@ -1452,8 +1547,8 @@
       <c r="D15" s="8">
         <v>18</v>
       </c>
-      <c r="E15" s="10" t="s">
-        <v>46</v>
+      <c r="E15" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="F15" s="8">
         <v>20</v>
@@ -1465,14 +1560,14 @@
         <v>8</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1488,8 +1583,8 @@
       <c r="D16" s="8">
         <v>25</v>
       </c>
-      <c r="E16" s="12" t="s">
-        <v>59</v>
+      <c r="E16" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="F16" s="8">
         <v>27</v>
@@ -1501,12 +1596,12 @@
         <v>9</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1523,7 +1618,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F17" s="9">
         <v>3</v>
@@ -1535,10 +1630,10 @@
         <v>10</v>
       </c>
       <c r="J17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>5</v>
       </c>
@@ -1560,8 +1655,41 @@
       <c r="G18" s="5">
         <v>11</v>
       </c>
+      <c r="J18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="17">
+        <v>1</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+    </row>
+    <row r="25" spans="1:10" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="17">
+        <v>2</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B24:G24"/>
+  </mergeCells>
   <conditionalFormatting sqref="N5:N16">
     <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="true">
       <formula>NOT(ISERROR(SEARCH("true",N5)))</formula>

--- a/Deadlines.xlsx
+++ b/Deadlines.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="74">
   <si>
     <t xml:space="preserve">maandag </t>
   </si>
@@ -319,21 +319,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">14
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Hoofdtekst)"/>
-      </rPr>
-      <t>N° 1/2</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">28
 </t>
     </r>
@@ -438,12 +423,43 @@
       <t>N° 8/9</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">14
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Hoofdtekst)"/>
+      </rPr>
+      <t>N° 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">21
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N°2</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -523,6 +539,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1039,7 +1062,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1215,7 +1238,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C6" s="7">
         <v>15</v>
@@ -1250,8 +1273,8 @@
       <c r="A7" s="7">
         <v>20</v>
       </c>
-      <c r="B7" s="8">
-        <v>21</v>
+      <c r="B7" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="C7" s="7">
         <v>22</v>
@@ -1285,7 +1308,7 @@
         <v>27</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C8" s="7">
         <v>29</v>
@@ -1300,7 +1323,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H8" t="s">
         <v>8</v>
@@ -1322,7 +1345,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9" s="5">
         <v>5</v>
@@ -1371,7 +1394,7 @@
         <v>15</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J10" s="4">
         <v>3</v>
@@ -1392,7 +1415,7 @@
         <v>17</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C11" s="5">
         <v>19</v>
@@ -1428,7 +1451,7 @@
         <v>24</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C12" s="5">
         <v>26</v>
@@ -1443,7 +1466,7 @@
         <v>29</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H12" t="s">
         <v>9</v>
@@ -1518,7 +1541,7 @@
         <v>13</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J14" s="4">
         <v>7</v>
@@ -1539,7 +1562,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C15" s="7">
         <v>17</v>

--- a/Deadlines.xlsx
+++ b/Deadlines.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="75">
   <si>
     <t xml:space="preserve">maandag </t>
   </si>
@@ -454,12 +454,15 @@
       <t>N°2</t>
     </r>
   </si>
+  <si>
+    <t>true</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -546,6 +549,12 @@
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1061,8 +1070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1230,7 +1239,7 @@
         <v>27</v>
       </c>
       <c r="N5" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1713,6 +1722,7 @@
   <mergeCells count="1">
     <mergeCell ref="B24:G24"/>
   </mergeCells>
+  <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="N5:N16">
     <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="true">
       <formula>NOT(ISERROR(SEARCH("true",N5)))</formula>
@@ -1725,7 +1735,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <tableParts count="3">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>

--- a/Deadlines.xlsx
+++ b/Deadlines.xlsx
@@ -1071,7 +1071,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1275,7 +1275,7 @@
         <v>26</v>
       </c>
       <c r="N6" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="M7" s="3"/>
       <c r="N7" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="M8" s="3"/>
       <c r="N8" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1380,7 +1380,7 @@
       </c>
       <c r="M9" s="3"/>
       <c r="N9" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/Deadlines.xlsx
+++ b/Deadlines.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="78">
   <si>
     <t xml:space="preserve">maandag </t>
   </si>
@@ -318,38 +318,8 @@
 </t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">28
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Hoofdtekst)"/>
-      </rPr>
-      <t>N° 3</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">2
 </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">4
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Hoofdtekst)"/>
-      </rPr>
-      <t>N°4</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">16
@@ -456,6 +426,57 @@
   </si>
   <si>
     <t>true</t>
+  </si>
+  <si>
+    <r>
+      <t>28
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Hoofdtekst)"/>
+      </rPr>
+      <t>N° 3)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Hoofdtekst)"/>
+      </rPr>
+      <t>N°4) &gt; N°3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">11
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Hoofdtekst)"/>
+      </rPr>
+      <t>&gt; N°4</t>
+    </r>
+  </si>
+  <si>
+    <t>waarden tussen haakjes zijn niet gehaald</t>
+  </si>
+  <si>
+    <t>waarden achter &gt; is nieuwe deadline</t>
   </si>
 </sst>
 </file>
@@ -677,7 +698,34 @@
     <cellStyle name="Ongeldig" xfId="2" builtinId="27"/>
     <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="13">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -740,21 +788,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="K4:L16" totalsRowShown="0" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="K4:L16" totalsRowShown="0" dataDxfId="9">
   <autoFilter ref="K4:L16"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="onderdeel" dataDxfId="5"/>
-    <tableColumn id="2" name="sub-onderdeel" dataDxfId="4"/>
+    <tableColumn id="1" name="onderdeel" dataDxfId="8"/>
+    <tableColumn id="2" name="sub-onderdeel" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel2" displayName="Tabel2" ref="M4:N16" totalsRowShown="0" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel2" displayName="Tabel2" ref="M4:N16" totalsRowShown="0" dataDxfId="6">
   <autoFilter ref="M4:N16"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="ref bp-voorstel" dataDxfId="2"/>
+    <tableColumn id="1" name="ref bp-voorstel" dataDxfId="5"/>
     <tableColumn id="2" name="voltooid"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -762,10 +810,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabel3" displayName="Tabel3" ref="J4:J16" totalsRowShown="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabel3" displayName="Tabel3" ref="J4:J16" totalsRowShown="0" dataDxfId="4">
   <autoFilter ref="J4:J16"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="N°" dataDxfId="0"/>
+    <tableColumn id="1" name="N°" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1071,7 +1119,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1239,7 +1287,7 @@
         <v>27</v>
       </c>
       <c r="N5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1247,7 +1295,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C6" s="7">
         <v>15</v>
@@ -1275,7 +1323,7 @@
         <v>26</v>
       </c>
       <c r="N6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1283,7 +1331,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C7" s="7">
         <v>22</v>
@@ -1309,7 +1357,7 @@
       </c>
       <c r="M7" s="3"/>
       <c r="N7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1317,7 +1365,7 @@
         <v>27</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C8" s="7">
         <v>29</v>
@@ -1332,7 +1380,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H8" t="s">
         <v>8</v>
@@ -1346,7 +1394,7 @@
       </c>
       <c r="M8" s="3"/>
       <c r="N8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1354,7 +1402,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C9" s="5">
         <v>5</v>
@@ -1380,15 +1428,15 @@
       </c>
       <c r="M9" s="3"/>
       <c r="N9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>10</v>
       </c>
-      <c r="B10" s="9">
-        <v>11</v>
+      <c r="B10" s="14" t="s">
+        <v>75</v>
       </c>
       <c r="C10" s="5">
         <v>12</v>
@@ -1403,7 +1451,7 @@
         <v>15</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J10" s="4">
         <v>3</v>
@@ -1416,7 +1464,7 @@
         <v>21</v>
       </c>
       <c r="N10" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -1424,7 +1472,7 @@
         <v>17</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C11" s="5">
         <v>19</v>
@@ -1460,7 +1508,7 @@
         <v>24</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C12" s="5">
         <v>26</v>
@@ -1475,7 +1523,7 @@
         <v>29</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H12" t="s">
         <v>9</v>
@@ -1550,7 +1598,7 @@
         <v>13</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J14" s="4">
         <v>7</v>
@@ -1571,7 +1619,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C15" s="7">
         <v>17</v>
@@ -1691,7 +1739,16 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>77</v>
+      </c>
+    </row>
     <row r="23" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>55</v>
@@ -1724,13 +1781,13 @@
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="N5:N16">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="true">
+    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="true">
       <formula>NOT(ISERROR(SEARCH("true",N5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="false">
+    <cfRule type="containsText" dxfId="11" priority="2" operator="containsText" text="false">
       <formula>NOT(ISERROR(SEARCH("false",N5)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="3">
+    <cfRule type="expression" dxfId="10" priority="3">
       <formula>"false=$N$5"</formula>
     </cfRule>
   </conditionalFormatting>
